--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42864.74798804104</v>
+        <v>40658.6545816033</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.6378487504166</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>334.4382242773923</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>14.03010001174249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>180.0198424776874</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.60729272330262</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>143.1366597264411</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>65.95263903154847</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015503</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>64.72253987877464</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>125.7390837397973</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>104.0206107803022</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="T7" t="n">
-        <v>194.513007553545</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.8130802479735</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>244.3243799685264</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.99240337009266</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4415385849354</v>
       </c>
       <c r="C13" t="n">
-        <v>66.96007560985801</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520923</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.75769145492403</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>90.57602043208928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>107.3078600834193</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492399</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>124.5403771939618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.4855758462629</v>
+        <v>74.75769145492337</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.9115438999869</v>
       </c>
       <c r="X28" t="n">
-        <v>97.28002421814107</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>256.2264750457247</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083911</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>121.7283340813995</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,25 +3266,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E35" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880219</v>
+        <v>6.081513486880283</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213011</v>
+        <v>73.69234550213017</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U35" t="n">
         <v>215.4997556728563</v>
@@ -3329,7 +3329,7 @@
         <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y35" t="n">
         <v>350.7425223700079</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125822</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>6.356517984769392</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282751</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379236</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400166</v>
       </c>
       <c r="S37" t="n">
-        <v>118.0781619153394</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
         <v>250.7164219195672</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y37" t="n">
         <v>183.0892370660491</v>
@@ -3503,25 +3503,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E38" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880205</v>
+        <v>6.08151348688029</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213017</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840892</v>
@@ -3566,7 +3566,7 @@
         <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y38" t="n">
         <v>350.7425223700079</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125822</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>6.356517984768153</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400166</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>133.9211556220102</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E41" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880283</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213092</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V41" t="n">
         <v>292.2568421840892</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313676</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y41" t="n">
         <v>350.7425223700079</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125822</v>
       </c>
       <c r="D43" t="n">
-        <v>62.98767936405372</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58.61957059314329</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379243</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400167</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E44" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H44" t="n">
         <v>259.1123481012748</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880198</v>
+        <v>6.08151348688029</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213017</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840892</v>
@@ -4040,7 +4040,7 @@
         <v>313.7455524313673</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y44" t="n">
         <v>350.7425223700079</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125822</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>6.356517984769167</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400166</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V46" t="n">
-        <v>170.3703077735611</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.4154778383031</v>
+        <v>1491.681022691646</v>
       </c>
       <c r="C2" t="n">
-        <v>473.4154778383031</v>
+        <v>1122.718505751235</v>
       </c>
       <c r="D2" t="n">
-        <v>473.4154778383031</v>
+        <v>784.9021175922526</v>
       </c>
       <c r="E2" t="n">
-        <v>473.4154778383031</v>
+        <v>399.1138649940083</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869553</v>
+        <v>392.1683642448049</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501624</v>
+        <v>377.9965460511256</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244781</v>
+        <v>143.3613405244787</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293493</v>
+        <v>406.6417666293505</v>
       </c>
       <c r="L2" t="n">
-        <v>785.541043602462</v>
+        <v>785.5410436024644</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782772</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.409655400863</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671742</v>
+        <v>2015.885456671747</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.72230711068</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750819</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045088</v>
+        <v>2412.887742750819</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320151</v>
+        <v>2231.049518025882</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.694284428201</v>
+        <v>2231.049518025882</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.912625935711</v>
+        <v>2231.049518025882</v>
       </c>
       <c r="V2" t="n">
-        <v>1355.84973859214</v>
+        <v>2231.049518025882</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.081083322026</v>
+        <v>1878.280862755768</v>
       </c>
       <c r="X2" t="n">
-        <v>629.6153250609461</v>
+        <v>1878.280862755768</v>
       </c>
       <c r="Y2" t="n">
-        <v>629.6153250609461</v>
+        <v>1878.280862755768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.2709468666834</v>
+        <v>692.971060698286</v>
       </c>
       <c r="C3" t="n">
-        <v>667.8179175855564</v>
+        <v>548.3885761261233</v>
       </c>
       <c r="D3" t="n">
-        <v>518.8835079243051</v>
+        <v>399.4541664648721</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6460529188497</v>
+        <v>399.4541664648721</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>252.919608491757</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719581</v>
+        <v>111.2074192719586</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757256</v>
+        <v>345.4192653503525</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519685</v>
+        <v>525.9465153519723</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664339</v>
+        <v>1017.086411664344</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987183</v>
+        <v>1536.932332987188</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602207</v>
+        <v>1946.074112602213</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642316</v>
+        <v>2257.443393642322</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750819</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750812</v>
+        <v>2354.422089841572</v>
       </c>
       <c r="S3" t="n">
-        <v>2252.245964543517</v>
+        <v>2193.780311634277</v>
       </c>
       <c r="T3" t="n">
-        <v>2052.831682881819</v>
+        <v>1994.366029972578</v>
       </c>
       <c r="U3" t="n">
-        <v>1824.653314558026</v>
+        <v>1766.187661648785</v>
       </c>
       <c r="V3" t="n">
-        <v>1589.501206326283</v>
+        <v>1531.035553417042</v>
       </c>
       <c r="W3" t="n">
-        <v>1335.263849598082</v>
+        <v>1276.798196688841</v>
       </c>
       <c r="X3" t="n">
-        <v>1127.412349392549</v>
+        <v>1068.946696483308</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.6520506275951</v>
+        <v>861.1863977183541</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.6340577628694</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461006</v>
+        <v>91.87143294461049</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.208359838435</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534285</v>
+        <v>330.9866617534297</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692849</v>
+        <v>461.1612976692865</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984521</v>
+        <v>565.382347798454</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978495</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978495</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978474</v>
+        <v>504.0316032031047</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978474</v>
+        <v>504.0316032031047</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978474</v>
+        <v>276.2473057530337</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978474</v>
+        <v>276.2473057530337</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978474</v>
+        <v>276.2473057530337</v>
       </c>
       <c r="W4" t="n">
-        <v>341.6236086608868</v>
+        <v>276.2473057530337</v>
       </c>
       <c r="X4" t="n">
-        <v>113.6340577628694</v>
+        <v>48.25775485501639</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.6340577628694</v>
+        <v>48.25775485501639</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2415.900279311885</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2063.131624041771</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.665865780691</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1299.526533804879</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>383.5045402329973</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>383.5045402329973</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>383.5045402329973</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>718.6990929206892</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>300.735284818876</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481816</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="11">
@@ -5045,22 +5045,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M11" t="n">
-        <v>1832.617028429936</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>851.6600189147881</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.308483745028</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y13" t="n">
-        <v>1033.308483745028</v>
+        <v>399.0634049978527</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>3362.809616117416</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996753</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
         <v>4260.556453353931</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
         <v>3150.955528730109</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.0235789048305</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862235</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689061</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689061</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814705</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1294.233328085321</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>1004.816158048361</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X16" t="n">
-        <v>1004.816158048361</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y16" t="n">
-        <v>784.0235789048305</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.6423705955726</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>510.7061876676657</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>360.58954825533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>360.58954825533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.58954825533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5677,16 +5677,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1626.18507281219</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1371.500584606303</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.083414569342</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.083414569342</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.2908354258124</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,22 +5756,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1670.680157531993</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.230460361821</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942217</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1830.545105302722</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.442238428366</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.757750222479</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.757750222479</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.768199324461</v>
+        <v>391.8664332433629</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>654.3809594856828</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1518.899775139038</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2497.450077968866</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027648</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.789495593986</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>962.799944695969</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.007365552439</v>
+        <v>171.0738540998322</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,22 +6382,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1377.823429193386</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M29" t="n">
-        <v>1770.231306037953</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>2749.9835782646</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3629.948228594054</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4343.303316041</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.3002584566049</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6628,7 +6628,7 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1505.842960673222</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1251.158472467335</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W31" t="n">
-        <v>961.7413024303747</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X31" t="n">
-        <v>961.7413024303747</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.9487232868446</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,46 +6704,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.993034926781</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3763.957685256236</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1641.699668717995</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1352.596801843639</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.912313637752</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1097.912313637752</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1097.912313637752</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.1197344942216</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C35" t="n">
         <v>1779.154403914099</v>
@@ -6920,67 +6920,67 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424558</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571341</v>
+        <v>90.7282765957135</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590513</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285448</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.318051576954</v>
+        <v>1248.332796164048</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.868354406782</v>
+        <v>1781.864700835973</v>
       </c>
       <c r="N35" t="n">
-        <v>2814.024577681334</v>
+        <v>2328.643517894755</v>
       </c>
       <c r="O35" t="n">
-        <v>3316.997048560671</v>
+        <v>3208.60816822421</v>
       </c>
       <c r="P35" t="n">
-        <v>3711.771414917849</v>
+        <v>3921.963255671156</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426838</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.26668398364</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T35" t="n">
         <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C36" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E36" t="n">
         <v>476.9921777807642</v>
@@ -7011,7 +7011,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J36" t="n">
         <v>178.2626031702901</v>
@@ -7020,7 +7020,7 @@
         <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685619</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.7092067778617</v>
+        <v>582.2589880867681</v>
       </c>
       <c r="C37" t="n">
-        <v>725.6269796944455</v>
+        <v>449.1767610033518</v>
       </c>
       <c r="D37" t="n">
-        <v>611.3642961266004</v>
+        <v>334.9140774355066</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886981</v>
+        <v>222.8549396976041</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352789</v>
+        <v>216.4342144604633</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544885</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168368</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218551</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935363</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.97384161627</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O37" t="n">
         <v>1845.992741488919</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045763</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321463</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S37" t="n">
-        <v>2107.220591699909</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.220591699909</v>
+        <v>1830.770373008815</v>
       </c>
       <c r="U37" t="n">
-        <v>1853.971680670043</v>
+        <v>1577.521461978949</v>
       </c>
       <c r="V37" t="n">
-        <v>1635.141148308647</v>
+        <v>1358.690929617553</v>
       </c>
       <c r="W37" t="n">
-        <v>1381.577934116177</v>
+        <v>1105.127715425083</v>
       </c>
       <c r="X37" t="n">
-        <v>1189.44233906265</v>
+        <v>912.9921203715563</v>
       </c>
       <c r="Y37" t="n">
-        <v>1004.503715763611</v>
+        <v>728.0534970725173</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7157,52 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.7282765957135</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285448</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.8026539819</v>
+        <v>1379.222010022407</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>1912.753914694331</v>
       </c>
       <c r="N38" t="n">
-        <v>2552.113375712606</v>
+        <v>2459.532731753114</v>
       </c>
       <c r="O38" t="n">
-        <v>3432.078026042061</v>
+        <v>3339.497382082568</v>
       </c>
       <c r="P38" t="n">
-        <v>3921.963255671155</v>
+        <v>3734.271748439747</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752585</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.26668398364</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U38" t="n">
         <v>3767.029658702265</v>
@@ -7214,7 +7214,7 @@
         <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
         <v>2463.008849229651</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E39" t="n">
         <v>476.9921777807642</v>
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7257,7 +7257,7 @@
         <v>416.5268021506373</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M39" t="n">
         <v>1230.501287685619</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.874254503047</v>
+        <v>582.2589880867673</v>
       </c>
       <c r="C40" t="n">
-        <v>553.7920274196308</v>
+        <v>449.176761003351</v>
       </c>
       <c r="D40" t="n">
-        <v>439.5293438517857</v>
+        <v>334.9140774355058</v>
       </c>
       <c r="E40" t="n">
-        <v>327.4702061138833</v>
+        <v>222.8549396976032</v>
       </c>
       <c r="F40" t="n">
-        <v>216.4342144604632</v>
+        <v>216.4342144604633</v>
       </c>
       <c r="G40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218551</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935364</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.97384161627</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045763</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321463</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T40" t="n">
-        <v>1935.385639425094</v>
+        <v>1830.770373008815</v>
       </c>
       <c r="U40" t="n">
-        <v>1682.136728395229</v>
+        <v>1577.521461978949</v>
       </c>
       <c r="V40" t="n">
-        <v>1463.306196033832</v>
+        <v>1358.690929617553</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.742981841362</v>
+        <v>1105.127715425083</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.607386787836</v>
+        <v>912.9921203715562</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.6687634887961</v>
+        <v>728.0534970725166</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C41" t="n">
         <v>1779.154403914099</v>
@@ -7394,67 +7394,67 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571352</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J41" t="n">
-        <v>349.0864751476952</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>682.9058488375417</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1133.940062085951</v>
+        <v>1445.872985861817</v>
       </c>
       <c r="M41" t="n">
-        <v>1667.471966757875</v>
+        <v>1979.404890533742</v>
       </c>
       <c r="N41" t="n">
-        <v>2647.224238984522</v>
+        <v>2959.157162760388</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313977</v>
+        <v>3462.129633639725</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996904</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752586</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983641</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="42">
@@ -7473,28 +7473,28 @@
         <v>636.2296327862198</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807643</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076493</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402674</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781349</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702902</v>
       </c>
       <c r="K42" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M42" t="n">
         <v>1230.501287685619</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.2354894847508</v>
+        <v>582.2589880867674</v>
       </c>
       <c r="C43" t="n">
-        <v>503.1532624013345</v>
+        <v>449.1767610033511</v>
       </c>
       <c r="D43" t="n">
-        <v>439.5293438517853</v>
+        <v>449.1767610033511</v>
       </c>
       <c r="E43" t="n">
-        <v>327.4702061138829</v>
+        <v>337.1176232654486</v>
       </c>
       <c r="F43" t="n">
-        <v>216.4342144604632</v>
+        <v>337.1176232654486</v>
       </c>
       <c r="G43" t="n">
-        <v>84.58533367967279</v>
+        <v>205.2687424846581</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,7 +7582,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
         <v>2113.740704045764</v>
@@ -7591,28 +7591,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T43" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1631.497963376932</v>
+        <v>1577.521461978949</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.667431015536</v>
+        <v>1358.690929617553</v>
       </c>
       <c r="W43" t="n">
-        <v>1159.104216823066</v>
+        <v>1105.127715425083</v>
       </c>
       <c r="X43" t="n">
-        <v>966.9686217695394</v>
+        <v>912.9921203715562</v>
       </c>
       <c r="Y43" t="n">
-        <v>782.0299984704999</v>
+        <v>728.0534970725166</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C44" t="n">
         <v>1779.154403914099</v>
@@ -7631,55 +7631,55 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571352</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590513</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1877967739978</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.222010022407</v>
+        <v>1225.723700597307</v>
       </c>
       <c r="M44" t="n">
-        <v>1912.753914694331</v>
+        <v>1781.864700835974</v>
       </c>
       <c r="N44" t="n">
-        <v>2892.506186920978</v>
+        <v>2328.643517894756</v>
       </c>
       <c r="O44" t="n">
-        <v>3395.478657800315</v>
+        <v>3208.608168224211</v>
       </c>
       <c r="P44" t="n">
-        <v>3790.253024157493</v>
+        <v>3921.963255671157</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426839</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983641</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V44" t="n">
         <v>3471.820727203185</v>
@@ -7688,10 +7688,10 @@
         <v>3154.906027777562</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285977</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474707</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862196</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E45" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402678</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702902</v>
       </c>
       <c r="K45" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633029</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685619</v>
@@ -7764,7 +7764,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X45" t="n">
         <v>1335.59270751362</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>682.974801872853</v>
+        <v>582.2589880867679</v>
       </c>
       <c r="C46" t="n">
-        <v>549.8925747894368</v>
+        <v>449.1767610033515</v>
       </c>
       <c r="D46" t="n">
-        <v>549.8925747894368</v>
+        <v>334.9140774355064</v>
       </c>
       <c r="E46" t="n">
-        <v>437.8334370515344</v>
+        <v>222.8549396976039</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981147</v>
+        <v>216.4342144604633</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173243</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967283</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935365</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O46" t="n">
         <v>1845.992741488919</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045763</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321463</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406797</v>
+        <v>1830.770373008815</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376932</v>
+        <v>1577.521461978949</v>
       </c>
       <c r="V46" t="n">
-        <v>1459.406743403638</v>
+        <v>1358.690929617553</v>
       </c>
       <c r="W46" t="n">
-        <v>1205.843529211168</v>
+        <v>1105.127715425083</v>
       </c>
       <c r="X46" t="n">
-        <v>1013.707934157642</v>
+        <v>912.9921203715563</v>
       </c>
       <c r="Y46" t="n">
-        <v>828.7693108586021</v>
+        <v>728.0534970725171</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>66.6835431998251</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.0586514907079</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>116.5656919961587</v>
       </c>
       <c r="M11" t="n">
-        <v>63.01588120402391</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>314.5564971416987</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>130.0020851999082</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>148.4180109385406</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>283.31560276855</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>417.9366924407896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>36.48628322062262</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>107.5040408147563</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.7323010770063</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>17.45080131651036</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>102.8529310510272</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>22.83747026943621</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>232.7044507229995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>96.0715790625411</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>123.8709611688444</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>76.3858692010071</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>391.4696305907713</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>22.83747026943729</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.0406378925876</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.39044159700185</v>
       </c>
       <c r="C13" t="n">
-        <v>100.2867454887698</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370381</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.5616228917387</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>178.9039781221936</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>92.48912964370385</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>95.00857208220741</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.3464043356744</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.61145443660408</v>
       </c>
       <c r="X28" t="n">
-        <v>128.4296311708961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>29.98536315988821</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>92.48912964370371</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>97.82061519476969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696621</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>103.5691137521162</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379243</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.4367363840016</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>36.19544713005673</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901235</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>103.5691137521174</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379243</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>50.13237736811325</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>50.13237736811288</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368856</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>50.64002803513183</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.5691137521164</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379243</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>46.27191926422121</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096418.634340168</v>
+        <v>1096418.634340169</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
         <v>317665.4295095865</v>
@@ -26326,13 +26326,13 @@
         <v>317665.4295095865</v>
       </c>
       <c r="G2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095862</v>
       </c>
       <c r="H2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="I2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="J2" t="n">
         <v>317665.4295095864</v>
@@ -26341,7 +26341,7 @@
         <v>317665.4295095865</v>
       </c>
       <c r="L2" t="n">
-        <v>317665.4295095864</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="M2" t="n">
         <v>325789.3250672733</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394286</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418048</v>
+        <v>78665.28217417866</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410734</v>
+        <v>157829.4001410738</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702217</v>
+        <v>18289.94367022126</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455553</v>
+        <v>223242.9088455548</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,16 +26424,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499386</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499387</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
@@ -26445,19 +26445,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000349</v>
+        <v>53328.24410000345</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000352</v>
+        <v>53328.24410000343</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000341</v>
       </c>
       <c r="P4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000346</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.68871133446</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-479234.0324506031</v>
+        <v>-479234.0324506044</v>
       </c>
       <c r="C6" t="n">
-        <v>-34172.15821960822</v>
+        <v>-34172.15821960638</v>
       </c>
       <c r="D6" t="n">
-        <v>44493.12395457239</v>
+        <v>44493.12395457231</v>
       </c>
       <c r="E6" t="n">
-        <v>-531186.2264125277</v>
+        <v>-531253.4219027534</v>
       </c>
       <c r="F6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="G6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906529</v>
       </c>
       <c r="H6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="I6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.992090653</v>
       </c>
       <c r="J6" t="n">
-        <v>38361.78743980556</v>
+        <v>38294.59194957927</v>
       </c>
       <c r="K6" t="n">
-        <v>177901.2439106573</v>
+        <v>177834.0484204319</v>
       </c>
       <c r="L6" t="n">
-        <v>196191.1875808789</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="M6" t="n">
-        <v>57586.23995785795</v>
+        <v>57569.81881486774</v>
       </c>
       <c r="N6" t="n">
-        <v>181435.0311460329</v>
+        <v>181418.6100030426</v>
       </c>
       <c r="O6" t="n">
-        <v>181435.031146033</v>
+        <v>181418.6100030428</v>
       </c>
       <c r="P6" t="n">
-        <v>181435.031146033</v>
+        <v>181418.6100030428</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688993</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877048</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688993</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818879</v>
+        <v>61.1750852481874</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877048</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685082</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877048</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685082</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413542</v>
+        <v>383.0293982413544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877048</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685082</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.095992913064</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>20.24481734329066</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>161.4125322208643</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866678</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.92589092656472</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.57183926187469</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>102.5242812198532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792399</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>52.99928112255591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.3601878273906</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>25.88630449671354</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>214.0680412192119</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878914634775</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>223.7316476898327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="T7" t="n">
-        <v>30.52209790453932</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.9207614155071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>79.5983927958307</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.6230696481197</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.9582650689963</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.442045544070759e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28327,10 +28327,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604491</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604567</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604566</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392559</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161905</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.06335734954168</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035643</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221713</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166214</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175788</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.079891324093</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497332</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847293</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944833</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.9423155724829</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.00022710855797</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100929</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714047</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859343</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674682</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.4439938198666</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933076</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.9538242631884</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.84648586656</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380501</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648751</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313762</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.0260640674334</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915891</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248811</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.64781067861592</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.744589849739795</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012727</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.5708613719111297</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173502</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801834</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.35989899411687</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840216</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.87151705667834</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148735</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890958</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.68866009522044</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823333</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430379</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065861</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760322</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.43913495271119</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.03113789301333439</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895178</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.9398243483555</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970846</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831386</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.0137521394862</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907918</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009424</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799385</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307262</v>
+        <v>63.5855196130729</v>
       </c>
       <c r="K3" t="n">
-        <v>38.79592848865398</v>
+        <v>236.577622301408</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>182.3507575773937</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660317</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250953</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636613</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930403</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489861</v>
+        <v>157.0144940489865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.0542202925193</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169945</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333279</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281382</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092601</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.32164737312682</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>572.1558063884909</v>
       </c>
       <c r="M11" t="n">
-        <v>601.9369970342507</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>866.8583325546102</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>638.0550860881273</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226428</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>687.3391267687674</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36124,25 +36124,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>738.9057171608822</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>956.8578082710163</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>373.6775697760231</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>615.5570417029754</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36850,7 +36850,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>379.5266058807258</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37072,25 +37072,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>473.0409157088425</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>501.614917270399</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>478.4275846617684</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>785.006286135911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911195</v>
+        <v>81.07383289911189</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L37" t="n">
         <v>355.2527884562438</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N37" t="n">
         <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,13 +37558,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>494.833565281913</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>374.6652659725639</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911189</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N40" t="n">
         <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1728701697197</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>847.0597449831034</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911189</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N43" t="n">
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>561.7585860996641</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>383.8349426963071</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911189</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N46" t="n">
         <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
